--- a/TimeCost/TimeCost.xlsx
+++ b/TimeCost/TimeCost.xlsx
@@ -54,7 +54,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="true"/>
@@ -65,43 +65,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>1.9323737999999999</v>
+        <v>3.0570589000000004</v>
       </c>
       <c r="B1" s="0">
-        <v>6.017288999999999</v>
+        <v>4.9849895000000002</v>
       </c>
       <c r="C1" s="0">
-        <v>7.9361842999999999</v>
+        <v>8.3299371999999998</v>
       </c>
       <c r="D1" s="0">
-        <v>10.621625100000001</v>
+        <v>11.609496999999999</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.1721101999999997</v>
+        <v>2.9863044999999997</v>
       </c>
       <c r="B2" s="0">
-        <v>6.6385436999999996</v>
+        <v>6.4765619000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>9.9264957999999996</v>
+        <v>9.6044078000000006</v>
       </c>
       <c r="D2" s="0">
-        <v>13.140729300000004</v>
+        <v>12.746743199999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
+        <v>3.1228170999999998</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6.3552137999999996</v>
+      </c>
+      <c r="C3" s="0">
+        <v>9.8347019000000007</v>
+      </c>
+      <c r="D3" s="0">
+        <v>12.711551700000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>0</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B4" s="0">
         <v>0</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C4" s="0">
         <v>0</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D4" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TimeCost/TimeCost.xlsx
+++ b/TimeCost/TimeCost.xlsx
@@ -60,49 +60,49 @@
     <col min="1" max="1" width="9.7109375" customWidth="true"/>
     <col min="2" max="2" width="9.7109375" customWidth="true"/>
     <col min="3" max="3" width="9.7109375" customWidth="true"/>
-    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="4" max="4" width="9.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>3.0570589000000004</v>
+        <v>2.5168604999999999</v>
       </c>
       <c r="B1" s="0">
-        <v>4.9849895000000002</v>
+        <v>4.8771974999999994</v>
       </c>
       <c r="C1" s="0">
-        <v>8.3299371999999998</v>
+        <v>7.3728775000000004</v>
       </c>
       <c r="D1" s="0">
-        <v>11.609496999999999</v>
+        <v>9.825029500000003</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2.9863044999999997</v>
+        <v>0.16373600000000002</v>
       </c>
       <c r="B2" s="0">
-        <v>6.4765619000000001</v>
+        <v>0.31909479999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>9.6044078000000006</v>
+        <v>0.47682370000000002</v>
       </c>
       <c r="D2" s="0">
-        <v>12.746743199999999</v>
+        <v>0.63607080000000005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3.1228170999999998</v>
+        <v>0.1629256</v>
       </c>
       <c r="B3" s="0">
-        <v>6.3552137999999996</v>
+        <v>0.31921210000000005</v>
       </c>
       <c r="C3" s="0">
-        <v>9.8347019000000007</v>
+        <v>0.48182569999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>12.711551700000001</v>
+        <v>0.63463669999999994</v>
       </c>
     </row>
     <row r="4">

--- a/TimeCost/TimeCost.xlsx
+++ b/TimeCost/TimeCost.xlsx
@@ -65,44 +65,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>2.5168604999999999</v>
+        <v>0.1918058</v>
       </c>
       <c r="B1" s="0">
-        <v>4.8771974999999994</v>
+        <v>0.38257610000000003</v>
       </c>
       <c r="C1" s="0">
-        <v>7.3728775000000004</v>
+        <v>0.55779619999999996</v>
       </c>
       <c r="D1" s="0">
-        <v>9.825029500000003</v>
+        <v>0.72816270000000005</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.16373600000000002</v>
+        <v>0.14462130000000001</v>
       </c>
       <c r="B2" s="0">
-        <v>0.31909479999999996</v>
+        <v>0.2838077</v>
       </c>
       <c r="C2" s="0">
-        <v>0.47682370000000002</v>
+        <v>0.42568179999999989</v>
       </c>
       <c r="D2" s="0">
-        <v>0.63607080000000005</v>
+        <v>0.56691649999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1629256</v>
+        <v>0.14332980000000001</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31921210000000005</v>
+        <v>0.28314320000000004</v>
       </c>
       <c r="C3" s="0">
-        <v>0.48182569999999997</v>
+        <v>0.44990799999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>0.63463669999999994</v>
+        <v>0.58362549999999991</v>
       </c>
     </row>
     <row r="4">

--- a/TimeCost/TimeCost.xlsx
+++ b/TimeCost/TimeCost.xlsx
@@ -65,58 +65,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.1918058</v>
+        <v>0.21211469999999999</v>
       </c>
       <c r="B1" s="0">
-        <v>0.38257610000000003</v>
+        <v>0.38930700000000001</v>
       </c>
       <c r="C1" s="0">
-        <v>0.55779619999999996</v>
+        <v>0.50811229999999996</v>
       </c>
       <c r="D1" s="0">
-        <v>0.72816270000000005</v>
+        <v>0.68927069999999979</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14462130000000001</v>
+        <v>0.14964189999999999</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2838077</v>
+        <v>0.2953634</v>
       </c>
       <c r="C2" s="0">
-        <v>0.42568179999999989</v>
+        <v>0.46052020000000005</v>
       </c>
       <c r="D2" s="0">
-        <v>0.56691649999999993</v>
+        <v>0.58395659999999994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14332980000000001</v>
+        <v>0.1506324</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28314320000000004</v>
+        <v>0.28763279999999997</v>
       </c>
       <c r="C3" s="0">
-        <v>0.44990799999999997</v>
+        <v>0.42952529999999994</v>
       </c>
       <c r="D3" s="0">
-        <v>0.58362549999999991</v>
+        <v>0.57700019999999996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>0.20168079999999999</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.30172209999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.45325950000000004</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.64989599999999992</v>
       </c>
     </row>
   </sheetData>

--- a/TimeCost/TimeCost.xlsx
+++ b/TimeCost/TimeCost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simulation\TimeCost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31EC63-E65E-4664-8B37-D2768581D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C77E9-8116-48FE-87A5-12AD0E73A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,74 +369,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="10" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1">
-        <v>6.1368299999999998</v>
+        <v>3.8667449999999999</v>
       </c>
       <c r="B1">
-        <v>13.537330000000001</v>
+        <v>6.1720050000000004</v>
       </c>
       <c r="C1">
-        <v>21.609359999999999</v>
+        <v>9.0586400000000005</v>
       </c>
       <c r="D1">
-        <v>30.55677</v>
+        <v>12.041245</v>
+      </c>
+      <c r="E1">
+        <v>15.682815</v>
+      </c>
+      <c r="F1">
+        <v>19.240300000000001</v>
+      </c>
+      <c r="G1">
+        <v>22.847075</v>
+      </c>
+      <c r="H1">
+        <v>26.146484999999998</v>
+      </c>
+      <c r="I1">
+        <v>29.499279999999999</v>
+      </c>
+      <c r="J1">
+        <v>33.119855000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>6.4988599999999996</v>
+        <v>3.3718650000000001</v>
       </c>
       <c r="B2">
-        <v>12.22758</v>
+        <v>5.9462250000000001</v>
       </c>
       <c r="C2">
-        <v>19.417210000000001</v>
+        <v>8.63246</v>
       </c>
       <c r="D2">
-        <v>28.125720000000001</v>
+        <v>11.185635</v>
+      </c>
+      <c r="E2">
+        <v>14.380134999999999</v>
+      </c>
+      <c r="F2">
+        <v>17.492914999999996</v>
+      </c>
+      <c r="G2">
+        <v>21.062524999999997</v>
+      </c>
+      <c r="H2">
+        <v>23.458420000000004</v>
+      </c>
+      <c r="I2">
+        <v>25.655519999999999</v>
+      </c>
+      <c r="J2">
+        <v>28.355070000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>6.0855499999999996</v>
+        <v>3.3971149999999999</v>
       </c>
       <c r="B3">
-        <v>12.69754</v>
+        <v>5.8351299999999995</v>
       </c>
       <c r="C3">
-        <v>20.242560000000001</v>
+        <v>8.9850699999999986</v>
       </c>
       <c r="D3">
-        <v>28.233519999999999</v>
+        <v>11.601090000000001</v>
+      </c>
+      <c r="E3">
+        <v>14.696860000000001</v>
+      </c>
+      <c r="F3">
+        <v>17.048439999999999</v>
+      </c>
+      <c r="G3">
+        <v>20.15767</v>
+      </c>
+      <c r="H3">
+        <v>23.029985</v>
+      </c>
+      <c r="I3">
+        <v>25.348704999999999</v>
+      </c>
+      <c r="J3">
+        <v>29.846034999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>6.9336900000000004</v>
+        <v>3.5767699999999998</v>
       </c>
       <c r="B4">
-        <v>12.57952</v>
+        <v>6.1096399999999997</v>
       </c>
       <c r="C4">
-        <v>19.738130000000002</v>
+        <v>8.6594850000000001</v>
       </c>
       <c r="D4">
-        <v>27.9559</v>
+        <v>11.384324999999999</v>
+      </c>
+      <c r="E4">
+        <v>14.500339999999998</v>
+      </c>
+      <c r="F4">
+        <v>17.824089999999998</v>
+      </c>
+      <c r="G4">
+        <v>20.318359999999998</v>
+      </c>
+      <c r="H4">
+        <v>24.058174999999999</v>
+      </c>
+      <c r="I4">
+        <v>26.528364999999997</v>
+      </c>
+      <c r="J4">
+        <v>29.549579999999999</v>
       </c>
     </row>
   </sheetData>
